--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>背景图</t>
   </si>
@@ -58,15 +58,12 @@
     <t>输出文件</t>
   </si>
   <si>
-    <t>bg.png</t>
+    <t>前景图是否需要阴影</t>
   </si>
   <si>
     <t>1080,1920</t>
   </si>
   <si>
-    <t>front_1.png</t>
-  </si>
-  <si>
     <t>540,1400,616,616</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>img1.png</t>
   </si>
   <si>
-    <t>front_2.png</t>
-  </si>
-  <si>
     <t>测试居中2</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>img2.png</t>
   </si>
   <si>
-    <t>front_3.png</t>
-  </si>
-  <si>
     <t>测试居中3</t>
   </si>
   <si>
@@ -128,51 +119,6 @@
   </si>
   <si>
     <t>img3.png</t>
-  </si>
-  <si>
-    <t>front_4.png</t>
-  </si>
-  <si>
-    <t>测试居中4</t>
-  </si>
-  <si>
-    <t>测试长123126</t>
-  </si>
-  <si>
-    <t>测试横向位置4</t>
-  </si>
-  <si>
-    <t>img4.png</t>
-  </si>
-  <si>
-    <t>front_5.png</t>
-  </si>
-  <si>
-    <t>测试居中5</t>
-  </si>
-  <si>
-    <t>测试长123127</t>
-  </si>
-  <si>
-    <t>测试横向位置5</t>
-  </si>
-  <si>
-    <t>img5.png</t>
-  </si>
-  <si>
-    <t>front_6.png</t>
-  </si>
-  <si>
-    <t>测试居中6</t>
-  </si>
-  <si>
-    <t>测试长123128</t>
-  </si>
-  <si>
-    <t>测试横向位置6</t>
-  </si>
-  <si>
-    <t>img6.png</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="6"/>
@@ -1134,9 +1080,10 @@
     <col min="11" max="11" width="15.4642857142857" customWidth="1"/>
     <col min="12" max="12" width="17.5535714285714" customWidth="1"/>
     <col min="13" max="13" width="17.1071428571429" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.4196428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,270 +1126,144 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
+    <row r="2" spans="2:15">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2"/>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="2:15">
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3"/>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="2:15">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4"/>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
-      </c>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>背景图</t>
   </si>
@@ -61,64 +62,118 @@
     <t>前景图是否需要阴影</t>
   </si>
   <si>
+    <t>文字4</t>
+  </si>
+  <si>
+    <t>文字4颜色</t>
+  </si>
+  <si>
+    <t>文字4位置大小</t>
+  </si>
+  <si>
+    <t>内页小说介绍</t>
+  </si>
+  <si>
+    <t>bg1.png</t>
+  </si>
+  <si>
     <t>1080,1920</t>
   </si>
   <si>
     <t>540,1400,616,616</t>
   </si>
   <si>
-    <t>测试居中1</t>
-  </si>
-  <si>
-    <t>#397750</t>
-  </si>
-  <si>
-    <t>540,500,200,100</t>
-  </si>
-  <si>
-    <t>测试长123123</t>
-  </si>
-  <si>
-    <t>#666666</t>
-  </si>
-  <si>
-    <t>540,600,200,100</t>
-  </si>
-  <si>
-    <t>测试横向位置1</t>
+    <t>推荐三本</t>
   </si>
   <si>
     <t>#999999</t>
   </si>
   <si>
-    <t>540,700,200,100</t>
+    <t>540,500,200,70</t>
+  </si>
+  <si>
+    <t>单行主标题示例</t>
+  </si>
+  <si>
+    <t>#cb60b2</t>
+  </si>
+  <si>
+    <t>0,700,200,100</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>540,800,200,50</t>
   </si>
   <si>
     <t>img1.png</t>
   </si>
   <si>
-    <t>测试居中2</t>
-  </si>
-  <si>
-    <t>测试长123124</t>
-  </si>
-  <si>
-    <t>测试横向位置2</t>
+    <t>单行副标题</t>
+  </si>
+  <si>
+    <t>540,950,200,60</t>
+  </si>
+  <si>
+    <t>两行主标题示例</t>
+  </si>
+  <si>
+    <t>0,650,200,100</t>
+  </si>
+  <si>
+    <t>540,750,200,100</t>
   </si>
   <si>
     <t>img2.png</t>
   </si>
   <si>
-    <t>测试居中3</t>
-  </si>
-  <si>
-    <t>测试长123125</t>
-  </si>
-  <si>
-    <t>测试横向位置3</t>
+    <t>甜掉牙的校园文</t>
+  </si>
+  <si>
+    <t>狗粮满满吃到饱！</t>
   </si>
   <si>
     <t>img3.png</t>
+  </si>
+  <si>
+    <t>540,950,200,100</t>
+  </si>
+  <si>
+    <t>甜掉牙的</t>
+  </si>
+  <si>
+    <t>校园文</t>
+  </si>
+  <si>
+    <t>nei_bg2.png</t>
+  </si>
+  <si>
+    <t>nei_front_4.png</t>
+  </si>
+  <si>
+    <t>540,1400,439,585</t>
+  </si>
+  <si>
+    <t>《推荐三本》</t>
+  </si>
+  <si>
+    <t>540,350,200,70</t>
+  </si>
+  <si>
+    <t>0,450,200,50</t>
+  </si>
+  <si>
+    <t>540,780,200,60</t>
+  </si>
+  <si>
+    <t>540,850,200,60</t>
+  </si>
+  <si>
+    <t>晚风窃笑街角 需要为一堆落叶放哨\n冷的月色\n铺垫整场你礼貌的揭晓 不爱我就拉倒</t>
+  </si>
+  <si>
+    <t>重点色：</t>
   </si>
 </sst>
 </file>
@@ -127,11 +182,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,24 +195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,16 +218,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,16 +278,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,68 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +546,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,57 +633,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,156 +651,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,14 +1125,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="6"/>
   <cols>
+    <col min="1" max="1" width="12.4910714285714" customWidth="1"/>
     <col min="2" max="2" width="11.3571428571429"/>
     <col min="3" max="3" width="15.0267857142857" customWidth="1"/>
     <col min="4" max="4" width="20.9821428571429" style="1" customWidth="1"/>
@@ -1080,10 +1146,13 @@
     <col min="11" max="11" width="15.4642857142857" customWidth="1"/>
     <col min="12" max="12" width="17.5535714285714" customWidth="1"/>
     <col min="13" max="13" width="17.1071428571429" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.4196428571429" customWidth="1"/>
+    <col min="15" max="15" width="2.97321428571429" customWidth="1"/>
+    <col min="16" max="16" width="15.7678571428571" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.9732142857143" customWidth="1"/>
+    <col min="19" max="19" width="78.4107142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,138 +1198,285 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2"/>
+        <v>20</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3"/>
+        <v>20</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4"/>
+        <v>20</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1"/>
@@ -1269,4 +1485,29 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>背景图</t>
   </si>
@@ -101,7 +101,7 @@
     <t>0,700,200,100</t>
   </si>
   <si>
-    <t>#000000</t>
+    <t>#1e1e1e</t>
   </si>
   <si>
     <t>540,800,200,50</t>
@@ -146,31 +146,47 @@
     <t>校园文</t>
   </si>
   <si>
-    <t>nei_bg2.png</t>
-  </si>
-  <si>
-    <t>nei_front_4.png</t>
-  </si>
-  <si>
-    <t>540,1400,439,585</t>
-  </si>
-  <si>
-    <t>《推荐三本》</t>
+    <t>img4.png</t>
+  </si>
+  <si>
+    <t>nei_bg3.png</t>
+  </si>
+  <si>
+    <t>nei_front_5.png</t>
+  </si>
+  <si>
+    <t>540,1300,439,585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《仙宫之主逆袭》[重生]
+</t>
   </si>
   <si>
     <t>540,350,200,70</t>
   </si>
   <si>
+    <t>衣落成火</t>
+  </si>
+  <si>
     <t>0,450,200,50</t>
   </si>
   <si>
-    <t>540,780,200,60</t>
-  </si>
-  <si>
-    <t>540,850,200,60</t>
-  </si>
-  <si>
-    <t>晚风窃笑街角 需要为一堆落叶放哨\n冷的月色\n铺垫整场你礼貌的揭晓 不爱我就拉倒</t>
+    <t>禹天泽上辈子是蠢死的所以他决定这辈子聪明一点</t>
+  </si>
+  <si>
+    <t>540,780,200,40</t>
+  </si>
+  <si>
+    <t>img5.png</t>
+  </si>
+  <si>
+    <t>【重生|灵魂转换|主受】</t>
+  </si>
+  <si>
+    <t>540,850,200,40</t>
+  </si>
+  <si>
+    <t>武力值爆表但情商低的受 X 凡人奋同样（爱）情商低的攻</t>
   </si>
   <si>
     <t>重点色：</t>
@@ -796,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,6 +821,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1127,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="6"/>
@@ -1404,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1419,63 +1441,63 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" ht="25" spans="1:19">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -1500,7 +1522,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>

--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16140"/>
+    <workbookView windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>背景图</t>
   </si>
@@ -74,6 +74,18 @@
     <t>内页小说介绍</t>
   </si>
   <si>
+    <t>文字1字体</t>
+  </si>
+  <si>
+    <t>文字2字体</t>
+  </si>
+  <si>
+    <t>文字3字体</t>
+  </si>
+  <si>
+    <t>文字4字体</t>
+  </si>
+  <si>
     <t>bg1.png</t>
   </si>
   <si>
@@ -116,6 +128,12 @@
     <t>540,950,200,60</t>
   </si>
   <si>
+    <t>msyh.ttc</t>
+  </si>
+  <si>
+    <t>NotoSansSC-Bold.ttf</t>
+  </si>
+  <si>
     <t>两行主标题示例</t>
   </si>
   <si>
@@ -155,20 +173,20 @@
     <t>nei_front_5.png</t>
   </si>
   <si>
-    <t>540,1300,439,585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《仙宫之主逆袭》[重生]
+    <t>540,1332,439,585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《仙宫之主逆袭[重生]》
 </t>
   </si>
   <si>
-    <t>540,350,200,70</t>
+    <t>540,350,200,50</t>
   </si>
   <si>
     <t>衣落成火</t>
   </si>
   <si>
-    <t>0,450,200,50</t>
+    <t>0,450,200,40</t>
   </si>
   <si>
     <t>禹天泽上辈子是蠢死的所以他决定这辈子聪明一点</t>
@@ -180,7 +198,10 @@
     <t>img5.png</t>
   </si>
   <si>
-    <t>【重生|灵魂转换|主受】</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>【重生 灵魂转换 主受】</t>
   </si>
   <si>
     <t>540,850,200,40</t>
@@ -226,6 +247,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -234,40 +338,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,29 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,47 +369,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,169 +410,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,11 +586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,16 +626,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,162 +683,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="6"/>
@@ -1168,13 +1189,17 @@
     <col min="11" max="11" width="15.4642857142857" customWidth="1"/>
     <col min="12" max="12" width="17.5535714285714" customWidth="1"/>
     <col min="13" max="13" width="17.1071428571429" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.97321428571429" customWidth="1"/>
+    <col min="15" max="15" width="16.9553571428571" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7678571428571" style="1" customWidth="1"/>
     <col min="18" max="18" width="20.9732142857143" customWidth="1"/>
     <col min="19" max="19" width="78.4107142857143" customWidth="1"/>
+    <col min="20" max="20" width="18.1607142857143" customWidth="1"/>
+    <col min="21" max="21" width="18.0089285714286" customWidth="1"/>
+    <col min="22" max="22" width="19.3482142857143" customWidth="1"/>
+    <col min="23" max="23" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1242,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1232,272 +1257,342 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="P3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
         <v>32</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="25" spans="1:23">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="V6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="W6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" ht="25" spans="1:19">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -1522,10 +1617,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16740"/>
+    <workbookView windowHeight="16140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>背景图</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>文字4字体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前景图是否开启圆角 </t>
+  </si>
+  <si>
+    <t>圆角大小</t>
+  </si>
+  <si>
+    <t>内页小说介绍字体大小</t>
+  </si>
+  <si>
+    <t>内页小说介绍字体</t>
   </si>
   <si>
     <t>bg1.png</t>
@@ -248,14 +260,121 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,115 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,19 +404,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,54 +572,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,103 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,26 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,15 +639,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -663,8 +651,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,147 +671,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="6"/>
@@ -1197,9 +1209,12 @@
     <col min="21" max="21" width="18.0089285714286" customWidth="1"/>
     <col min="22" max="22" width="19.3482142857143" customWidth="1"/>
     <col min="23" max="23" width="23.5" customWidth="1"/>
+    <col min="24" max="24" width="21.7142857142857" customWidth="1"/>
+    <col min="26" max="26" width="20.8303571428571" customWidth="1"/>
+    <col min="27" max="27" width="16.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,330 +1284,402 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1">
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="T3" t="s">
+      <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>37</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="25" spans="1:27">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="T5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" ht="25" spans="1:23">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="Z6">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -1617,10 +1704,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16140"/>
+    <workbookView windowWidth="16425" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
   <si>
     <t>背景图</t>
   </si>
@@ -143,7 +143,7 @@
     <t>msyh.ttc</t>
   </si>
   <si>
-    <t>NotoSansSC-Bold.ttf</t>
+    <t>notosansscbold.ttf</t>
   </si>
   <si>
     <t>两行主标题示例</t>
@@ -230,23 +230,113 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -254,37 +344,45 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -292,105 +390,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -410,6 +410,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,169 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,15 +595,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -618,6 +609,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,26 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,6 +657,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,9 +687,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,148 +700,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,55 +863,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1178,40 +1178,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.4910714285714" customWidth="1"/>
-    <col min="2" max="2" width="11.3571428571429"/>
-    <col min="3" max="3" width="15.0267857142857" customWidth="1"/>
-    <col min="4" max="4" width="20.9821428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1607142857143" customWidth="1"/>
-    <col min="6" max="6" width="17.8482142857143" customWidth="1"/>
-    <col min="7" max="7" width="18.4464285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.0714285714286" customWidth="1"/>
-    <col min="9" max="9" width="13.8303571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.4916666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.3583333333333"/>
+    <col min="3" max="3" width="15.025" customWidth="1"/>
+    <col min="4" max="4" width="20.9833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1583333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.85" customWidth="1"/>
+    <col min="7" max="7" width="18.45" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.075" customWidth="1"/>
+    <col min="9" max="9" width="13.8333333333333" customWidth="1"/>
     <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4642857142857" customWidth="1"/>
-    <col min="12" max="12" width="17.5535714285714" customWidth="1"/>
-    <col min="13" max="13" width="17.1071428571429" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.9553571428571" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7678571428571" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.9732142857143" customWidth="1"/>
-    <col min="19" max="19" width="78.4107142857143" customWidth="1"/>
-    <col min="20" max="20" width="18.1607142857143" customWidth="1"/>
-    <col min="21" max="21" width="18.0089285714286" customWidth="1"/>
-    <col min="22" max="22" width="19.3482142857143" customWidth="1"/>
+    <col min="11" max="11" width="15.4666666666667" customWidth="1"/>
+    <col min="12" max="12" width="17.55" customWidth="1"/>
+    <col min="13" max="13" width="17.1083333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.9583333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.975" customWidth="1"/>
+    <col min="19" max="19" width="78.4083333333333" customWidth="1"/>
+    <col min="20" max="20" width="18.1583333333333" customWidth="1"/>
+    <col min="21" max="21" width="18.0083333333333" customWidth="1"/>
+    <col min="22" max="22" width="19.35" customWidth="1"/>
     <col min="23" max="23" width="23.5" customWidth="1"/>
-    <col min="24" max="24" width="21.7142857142857" customWidth="1"/>
-    <col min="26" max="26" width="20.8303571428571" customWidth="1"/>
-    <col min="27" max="27" width="16.6607142857143" customWidth="1"/>
+    <col min="24" max="24" width="21.7166666666667" customWidth="1"/>
+    <col min="26" max="26" width="20.8333333333333" customWidth="1"/>
+    <col min="27" max="27" width="16.6583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1599,7 +1599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" ht="25" spans="1:27">
+    <row r="6" ht="24" spans="1:27">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -1692,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -1700,7 +1700,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">

--- a/create_pic/conf.xlsx
+++ b/create_pic/conf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11670"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="126">
   <si>
     <t>背景图</t>
   </si>
@@ -35,25 +35,25 @@
     <t>文字1颜色</t>
   </si>
   <si>
-    <t>文字1位置大小</t>
-  </si>
-  <si>
-    <t>文字2</t>
+    <t>标题位置大小</t>
+  </si>
+  <si>
+    <t>作者</t>
   </si>
   <si>
     <t>文字2颜色</t>
   </si>
   <si>
-    <t>文字2位置大小</t>
-  </si>
-  <si>
-    <t>文字3</t>
+    <t>作者位置大小</t>
+  </si>
+  <si>
+    <t>副标题/人设</t>
   </si>
   <si>
     <t>文字3颜色</t>
   </si>
   <si>
-    <t>文字3位置大小</t>
+    <t>副标题/人设位置大小</t>
   </si>
   <si>
     <t>输出文件</t>
@@ -62,16 +62,16 @@
     <t>前景图是否需要阴影</t>
   </si>
   <si>
-    <t>文字4</t>
+    <t>标签</t>
   </si>
   <si>
     <t>文字4颜色</t>
   </si>
   <si>
-    <t>文字4位置大小</t>
-  </si>
-  <si>
-    <t>内页小说介绍</t>
+    <t>标签位置大小</t>
+  </si>
+  <si>
+    <t>简介</t>
   </si>
   <si>
     <t>文字1字体</t>
@@ -104,40 +104,46 @@
     <t>1080,1920</t>
   </si>
   <si>
+    <t>x.png</t>
+  </si>
+  <si>
     <t>540,1400,616,616</t>
   </si>
   <si>
-    <t>推荐三本</t>
+    <t>推荐3本</t>
   </si>
   <si>
     <t>#999999</t>
   </si>
   <si>
-    <t>540,500,200,70</t>
-  </si>
-  <si>
-    <t>单行主标题示例</t>
+    <t>540,480,200,70</t>
+  </si>
+  <si>
+    <t>苏爽甜炸</t>
   </si>
   <si>
     <t>#cb60b2</t>
   </si>
   <si>
-    <t>0,700,200,100</t>
-  </si>
-  <si>
-    <t>#1e1e1e</t>
-  </si>
-  <si>
-    <t>540,800,200,50</t>
+    <t>0,620,200,115</t>
+  </si>
+  <si>
+    <t>的主攻双男主文</t>
+  </si>
+  <si>
+    <t>#1f1f1f</t>
+  </si>
+  <si>
+    <t>540,780,200,115</t>
   </si>
   <si>
     <t>img1.png</t>
   </si>
   <si>
-    <t>单行副标题</t>
-  </si>
-  <si>
-    <t>540,950,200,60</t>
+    <t>又甜又撩的主攻文又来了！</t>
+  </si>
+  <si>
+    <t>540,980,200,50</t>
   </si>
   <si>
     <t>msyh.ttc</t>
@@ -146,80 +152,244 @@
     <t>notosansscbold.ttf</t>
   </si>
   <si>
-    <t>两行主标题示例</t>
-  </si>
-  <si>
-    <t>0,650,200,100</t>
-  </si>
-  <si>
-    <t>540,750,200,100</t>
+    <t>nei_bg3.png</t>
+  </si>
+  <si>
+    <t>书封面\\56327s.jpg</t>
+  </si>
+  <si>
+    <t>540,1332,439,585</t>
+  </si>
+  <si>
+    <t>《全面复苏[未来]》</t>
+  </si>
+  <si>
+    <t>540,260,200,70</t>
+  </si>
+  <si>
+    <t>R先生的猫 著</t>
+  </si>
+  <si>
+    <t>0,380,200,47</t>
+  </si>
+  <si>
+    <t>穿越温柔理智攻X外高冷内忠贞指挥官受</t>
+  </si>
+  <si>
+    <t>540,780,200,44</t>
   </si>
   <si>
     <t>img2.png</t>
   </si>
   <si>
-    <t>甜掉牙的校园文</t>
-  </si>
-  <si>
-    <t>狗粮满满吃到饱！</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>【主攻 星际 治愈 强强】</t>
+  </si>
+  <si>
+    <t>540,850,200,44</t>
+  </si>
+  <si>
+    <t>大脑中被植入芯片的严少泽，不得已为最高总指挥江天献上“无法想象”的忠诚。</t>
+  </si>
+  <si>
+    <t>书封面\\01-46d5cdb.jpg</t>
+  </si>
+  <si>
+    <t>《我听见了宿敌的声音》</t>
+  </si>
+  <si>
+    <t>歌尽繁芜 著</t>
+  </si>
+  <si>
+    <t>披着师弟马甲魔尊攻VS外表高岭之花大师兄受</t>
   </si>
   <si>
     <t>img3.png</t>
   </si>
   <si>
-    <t>540,950,200,100</t>
-  </si>
-  <si>
-    <t>甜掉牙的</t>
-  </si>
-  <si>
-    <t>校园文</t>
+    <t>【主攻 甜文 穿书 爽文】</t>
+  </si>
+  <si>
+    <t>作为魔修之首，越沧每天都很忙，忙到耳边出现了幻听，他好像能听到自己的宿敌的心声……</t>
+  </si>
+  <si>
+    <t>书封面\\5113307fgy1g5llhhwhlwj205k07saaq.jpg</t>
+  </si>
+  <si>
+    <t>《和谐了宿敌之后[穿书]》</t>
+  </si>
+  <si>
+    <t>晏昕空 著</t>
+  </si>
+  <si>
+    <t>穿书披着主角马甲魔头攻X重生披着主角基友马甲魔头受</t>
   </si>
   <si>
     <t>img4.png</t>
   </si>
   <si>
-    <t>nei_bg3.png</t>
-  </si>
-  <si>
-    <t>nei_front_5.png</t>
-  </si>
-  <si>
-    <t>540,1332,439,585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《仙宫之主逆袭[重生]》
-</t>
-  </si>
-  <si>
-    <t>540,350,200,50</t>
-  </si>
-  <si>
-    <t>衣落成火</t>
-  </si>
-  <si>
-    <t>0,450,200,40</t>
-  </si>
-  <si>
-    <t>禹天泽上辈子是蠢死的所以他决定这辈子聪明一点</t>
-  </si>
-  <si>
-    <t>540,780,200,40</t>
+    <t>【强强 制服 推理】</t>
+  </si>
+  <si>
+    <t>两个大佬披着小白马甲明（打）争（情）暗（骂）斗（俏）的日常</t>
+  </si>
+  <si>
+    <t>20.png</t>
+  </si>
+  <si>
+    <t>女主超A</t>
+  </si>
+  <si>
+    <t>的修仙小说</t>
   </si>
   <si>
     <t>img5.png</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>【重生 灵魂转换 主受】</t>
-  </si>
-  <si>
-    <t>540,850,200,40</t>
-  </si>
-  <si>
-    <t>武力值爆表但情商低的受 X 凡人奋同样（爱）情商低的攻</t>
+    <t>谈什么恋爱，修仙它不香吗？</t>
+  </si>
+  <si>
+    <t>书封面\\novelimage.jpg</t>
+  </si>
+  <si>
+    <t>《慢慢仙途》</t>
+  </si>
+  <si>
+    <t>绝世小白 著</t>
+  </si>
+  <si>
+    <t>倒霉法力超强女主X恣意无畏异兽男主</t>
+  </si>
+  <si>
+    <t>img6.png</t>
+  </si>
+  <si>
+    <t>【女强 灵异神怪 成长 修仙】</t>
+  </si>
+  <si>
+    <t>仙路漫漫，何其残酷，还不若平淡山野之中做一名逍遥自在的莽夫。</t>
+  </si>
+  <si>
+    <t>书封面\\45881s.jpg</t>
+  </si>
+  <si>
+    <t>《修真之掌门真绝色》</t>
+  </si>
+  <si>
+    <t>吴瑕 著</t>
+  </si>
+  <si>
+    <t>雄心壮志废柴体质女主X高颜值能打男主</t>
+  </si>
+  <si>
+    <t>img7.png</t>
+  </si>
+  <si>
+    <t>【近水楼台 仙侠修真 女强】</t>
+  </si>
+  <si>
+    <t>这是一个废柴流掌门的发家史</t>
+  </si>
+  <si>
+    <t>书封面\\18418s.jpg</t>
+  </si>
+  <si>
+    <t>《女配不在服务区》</t>
+  </si>
+  <si>
+    <t>十七玉色 著</t>
+  </si>
+  <si>
+    <t>专注修仙女主X一路追逐存在感低男主</t>
+  </si>
+  <si>
+    <t>img8.png</t>
+  </si>
+  <si>
+    <t>【空间 穿书 专注修仙】</t>
+  </si>
+  <si>
+    <t>为了活命，低调做人。你们去折腾吧，本菇凉先去修仙是正经</t>
+  </si>
+  <si>
+    <t>15.png</t>
+  </si>
+  <si>
+    <t>高甜超撩</t>
+  </si>
+  <si>
+    <t>的古风双男主文</t>
+  </si>
+  <si>
+    <t>img9.png</t>
+  </si>
+  <si>
+    <t>喜欢古耽的集美快来！</t>
+  </si>
+  <si>
+    <t>书封面\\16221s.jpg</t>
+  </si>
+  <si>
+    <t>《丞相他怀了龙种》</t>
+  </si>
+  <si>
+    <t>小文旦 著</t>
+  </si>
+  <si>
+    <t>能屈能伸有抱负受X霸道理性心机攻</t>
+  </si>
+  <si>
+    <t>img10.png</t>
+  </si>
+  <si>
+    <t>【主受 穿越 生子 悬疑】</t>
+  </si>
+  <si>
+    <t>孟侜有一个小抱负，出将入相，青史留名。就在他兢兢业业往上爬时，肚子大了。</t>
+  </si>
+  <si>
+    <t>书封面\\20190514094806.jpg</t>
+  </si>
+  <si>
+    <t>《铜钱龛世》</t>
+  </si>
+  <si>
+    <t>木苏里 著</t>
+  </si>
+  <si>
+    <t>高冷禁欲高僧攻（假的）x炸脾气乖张受（傻的）</t>
+  </si>
+  <si>
+    <t>img11.png</t>
+  </si>
+  <si>
+    <t>【主受 强强 灵异神怪 欢喜冤家】</t>
+  </si>
+  <si>
+    <t>僧人玄悯精通风水，失忆后抄了一座凶宅，多了一个人和他怼天怼地</t>
+  </si>
+  <si>
+    <t>书封面\\005zAGGJgy1fpxf4pb80qj309b0enq2y.jpg</t>
+  </si>
+  <si>
+    <t>《将进酒》</t>
+  </si>
+  <si>
+    <t>唐酒卿  著</t>
+  </si>
+  <si>
+    <t>浪荡败类纨绔攻vs睚眦必报美人受</t>
+  </si>
+  <si>
+    <t>img12.png</t>
+  </si>
+  <si>
+    <t>【主受 朝堂 强强】</t>
+  </si>
+  <si>
+    <t>沈泽川战败受押入京，被萧驰一脚踹成了病秧子。两个人从此结下了大梁子，见面必撕咬。</t>
   </si>
   <si>
     <t>重点色：</t>
@@ -231,9 +401,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -252,14 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,50 +430,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -327,53 +446,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +467,103 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -404,67 +574,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,115 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,54 +765,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,11 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +823,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,10 +873,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,16 +885,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,115 +903,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1180,38 +1350,42 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.4916666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.3583333333333"/>
-    <col min="3" max="3" width="15.025" customWidth="1"/>
+    <col min="1" max="1" width="12.4916666666667" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="11.3583333333333" hidden="1" outlineLevel="1"/>
+    <col min="3" max="3" width="15.025" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.9833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1583333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.85" customWidth="1"/>
-    <col min="7" max="7" width="18.45" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.075" customWidth="1"/>
-    <col min="9" max="9" width="13.8333333333333" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4666666666667" customWidth="1"/>
-    <col min="12" max="12" width="17.55" customWidth="1"/>
-    <col min="13" max="13" width="17.1083333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.9583333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.975" customWidth="1"/>
-    <col min="19" max="19" width="78.4083333333333" customWidth="1"/>
-    <col min="20" max="20" width="18.1583333333333" customWidth="1"/>
-    <col min="21" max="21" width="18.0083333333333" customWidth="1"/>
-    <col min="22" max="22" width="19.35" customWidth="1"/>
-    <col min="23" max="23" width="23.5" customWidth="1"/>
-    <col min="24" max="24" width="21.7166666666667" customWidth="1"/>
-    <col min="26" max="26" width="20.8333333333333" customWidth="1"/>
-    <col min="27" max="27" width="16.6583333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="18.45" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.075" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.8333333333333" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="18" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="15.4666666666667" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="17.1083333333333" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="9.14166666666667" collapsed="1"/>
+    <col min="15" max="15" width="11.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.14166666666667" hidden="1" outlineLevel="1"/>
+    <col min="18" max="18" width="20.975" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="22.875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.1583333333333" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="18.0083333333333" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="19.35" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="23.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="21.7166666666667" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.14166666666667" hidden="1" outlineLevel="1"/>
+    <col min="26" max="26" width="20.8333333333333" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="16.6583333333333" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.14166666666667" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1304,59 +1478,65 @@
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O2" s="1">
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1368,322 +1548,915 @@
         <v>40</v>
       </c>
       <c r="AA2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" ht="54" spans="1:27">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="Z3">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:27">
+      <c r="A4" t="s">
         <v>45</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>40</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z4">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" ht="40.5" spans="1:27">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="6" ht="24" spans="1:27">
+    <row r="6" customFormat="1" spans="1:27">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="40.5" spans="1:27">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="P7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="S7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="27" spans="1:27">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="40.5" spans="1:27">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+      <c r="Z9">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:27">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U6" t="s">
-        <v>41</v>
-      </c>
-      <c r="V6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X6">
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="54" spans="1:27">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11">
         <v>1</v>
       </c>
-      <c r="Y6">
+      <c r="Y11">
         <v>20</v>
       </c>
-      <c r="Z6">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>41</v>
+      <c r="Z11">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1"/>
+    <row r="12" customFormat="1" ht="40.5" spans="1:27">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="54" spans="1:27">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1704,10 +2477,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
